--- a/myPrezData/myBetter2016presgeresults.xlsx
+++ b/myPrezData/myBetter2016presgeresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28100" windowHeight="26360" activeTab="6"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="36540" windowHeight="26360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schema based results" sheetId="5" r:id="rId1"/>
@@ -2160,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -2190,9 +2190,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2215,11 +2212,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -2343,62 +2346,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2595,6 +2542,122 @@
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2609,10 +2672,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D83" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D83" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:D83"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="candidateID" dataDxfId="7"/>
+    <tableColumn id="1" name="candidateID" dataDxfId="20"/>
     <tableColumn id="2" name="candidateName"/>
     <tableColumn id="3" name="partyAbbr"/>
     <tableColumn id="4" name="year"/>
@@ -2622,7 +2685,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I52" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B52" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:B52">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="stateAbbr" dataDxfId="18"/>
+    <tableColumn id="2" name="stateName" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:I52">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2635,21 +2712,21 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="stateAbbr" dataDxfId="18"/>
-    <tableColumn id="2" name="1992" dataDxfId="17"/>
-    <tableColumn id="3" name="1996" dataDxfId="16"/>
-    <tableColumn id="4" name="2000" dataDxfId="15"/>
-    <tableColumn id="5" name="2004" dataDxfId="14"/>
-    <tableColumn id="6" name="2008" dataDxfId="13"/>
-    <tableColumn id="7" name="2012" dataDxfId="12"/>
-    <tableColumn id="8" name="2016" dataDxfId="11"/>
-    <tableColumn id="9" name="2020" dataDxfId="10"/>
+    <tableColumn id="1" name="stateAbbr" dataDxfId="14"/>
+    <tableColumn id="2" name="1992" dataDxfId="13"/>
+    <tableColumn id="3" name="1996" dataDxfId="12"/>
+    <tableColumn id="4" name="2000" dataDxfId="11"/>
+    <tableColumn id="5" name="2004" dataDxfId="10"/>
+    <tableColumn id="6" name="2008" dataDxfId="9"/>
+    <tableColumn id="7" name="2012" dataDxfId="8"/>
+    <tableColumn id="8" name="2016" dataDxfId="7"/>
+    <tableColumn id="9" name="2020" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:D52" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D52">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -20356,11 +20433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27063,627 +27140,764 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="21" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="21" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="21" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="21" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="21" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="21" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="21" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="21" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="21" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="21" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="21" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="21" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="21" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="21" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="21" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="21" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="21" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="21" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="21" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="21" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="21" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="21" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="21" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="21" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="21" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="21" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="21" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="21" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="21" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="21" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="21" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="21" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="11"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -27701,1924 +27915,1924 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>9</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>9</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>9</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>9</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>9</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>3</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>3</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>3</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>3</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>10</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>10</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>11</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>11</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>6</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>6</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>6</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>6</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>54</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>54</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>54</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>55</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>55</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>55</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>55</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>8</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>9</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>9</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>9</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>9</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>8</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>7</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>7</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>7</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>7</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>3</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>3</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>3</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>3</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>3</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>25</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>27</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>27</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>29</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>29</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>13</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>13</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>13</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>15</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>15</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>16</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>16</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>4</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>4</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>4</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>4</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>4</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>4</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>4</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>4</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>4</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>22</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>22</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>21</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>21</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>20</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>20</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>12</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>12</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>12</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>11</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>11</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>11</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>11</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>7</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>7</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>7</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>7</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>6</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>6</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>6</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>6</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>6</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>8</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>8</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>8</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>8</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>8</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>8</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>8</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>9</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>9</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>9</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="19">
         <v>8</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>8</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>4</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>4</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>4</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>4</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>4</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>10</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>10</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>10</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>10</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>10</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>10</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>10</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>12</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>12</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>12</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>12</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>12</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>11</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>11</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>18</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>18</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>17</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>17</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>16</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>16</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>10</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>10</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>10</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>10</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>10</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>10</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>7</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>7</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>6</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>6</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>6</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>11</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>11</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>11</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>11</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>10</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>10</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>3</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>3</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>3</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>3</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>3</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>3</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>3</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>5</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>5</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>5</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>5</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>5</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>5</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>4</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>5</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>5</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>6</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>6</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>4</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>4</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>4</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>4</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>4</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>4</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>15</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>15</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>15</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>15</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>15</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>14</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>14</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>5</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>5</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>5</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>5</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="19">
         <v>5</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="19">
         <v>5</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>33</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>33</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>31</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>31</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="19">
         <v>29</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="19">
         <v>29</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>14</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>14</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>15</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>15</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>15</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>15</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>3</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>3</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>3</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>3</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>3</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>3</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>21</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>21</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>20</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>20</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>18</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>18</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>8</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>8</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>8</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>7</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>7</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="19">
         <v>7</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <v>7</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>7</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <v>7</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>7</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>7</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>7</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="19">
         <v>7</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="19">
         <v>7</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>23</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>23</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>23</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>21</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>21</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="19">
         <v>20</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>20</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>4</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>4</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>4</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>4</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G41" s="19">
         <v>4</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="19">
         <v>4</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>8</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>8</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>8</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>8</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G42" s="19">
         <v>9</v>
       </c>
-      <c r="H42" s="20">
+      <c r="H42" s="19">
         <v>9</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>3</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>3</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>3</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>3</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="19">
         <v>3</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>3</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>11</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>11</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>11</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>11</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>11</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="19">
         <v>11</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>11</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>32</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>32</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>32</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>34</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>34</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="19">
         <v>38</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="19">
         <v>38</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>5</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>5</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>5</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>5</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>5</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="18">
         <v>6</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="18">
         <v>6</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>3</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>3</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>3</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>3</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <v>3</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>3</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="18">
         <v>3</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>13</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <v>13</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>13</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>13</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>13</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="18">
         <v>13</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="18">
         <v>13</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>11</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>11</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>11</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <v>11</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <v>11</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>12</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="18">
         <v>12</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>5</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>5</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>5</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>5</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>5</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="18">
         <v>5</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>11</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>11</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>11</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>10</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="12">
         <v>10</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G51" s="18">
         <v>10</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="18">
         <v>10</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I51" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>3</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>3</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>3</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>3</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>3</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="18">
         <v>3</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29633,7 +29847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -29643,991 +29857,991 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>9</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>9</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>3</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>10</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>54</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>55</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>9</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>8</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>7</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>25</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>27</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>15</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>4</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>4</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>4</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>4</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>22</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>21</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>12</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>11</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>7</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>7</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>6</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>8</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>8</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>9</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>9</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>10</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>10</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>12</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>12</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>18</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>17</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>10</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>7</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>6</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>11</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>11</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>3</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>3</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>5</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>5</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>5</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>4</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>4</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>15</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>15</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>5</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>5</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>31</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>14</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>15</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>3</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>3</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>20</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>8</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>7</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>7</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>7</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>23</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>21</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>4</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>8</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>8</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>3</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>3</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>11</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>11</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>32</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>34</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>5</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>5</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>3</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>3</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>13</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>13</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>11</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>11</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>5</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>5</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>11</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>10</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>3</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>3</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myPrezData/myBetter2016presgeresults.xlsx
+++ b/myPrezData/myBetter2016presgeresults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="36540" windowHeight="26360" activeTab="1"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="36540" windowHeight="27160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schema based results" sheetId="5" r:id="rId1"/>
@@ -2222,7 +2222,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2672,10 +2675,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D83" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B32" totalsRowShown="0">
+  <autoFilter ref="A1:B32">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="candidateID" dataDxfId="0"/>
+    <tableColumn id="2" name="candidateName"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:D83" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="A1:D83"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="candidateID" dataDxfId="20"/>
+    <tableColumn id="1" name="candidateID" dataDxfId="21"/>
     <tableColumn id="2" name="candidateName"/>
     <tableColumn id="3" name="partyAbbr"/>
     <tableColumn id="4" name="year"/>
@@ -2684,22 +2701,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B52" totalsRowShown="0" headerRowDxfId="19">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B52" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:B52">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="stateAbbr" dataDxfId="18"/>
-    <tableColumn id="2" name="stateName" dataDxfId="17"/>
+    <tableColumn id="1" name="stateAbbr" dataDxfId="19"/>
+    <tableColumn id="2" name="stateName" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I52">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2712,22 +2729,22 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="stateAbbr" dataDxfId="14"/>
-    <tableColumn id="2" name="1992" dataDxfId="13"/>
-    <tableColumn id="3" name="1996" dataDxfId="12"/>
-    <tableColumn id="4" name="2000" dataDxfId="11"/>
-    <tableColumn id="5" name="2004" dataDxfId="10"/>
-    <tableColumn id="6" name="2008" dataDxfId="9"/>
-    <tableColumn id="7" name="2012" dataDxfId="8"/>
-    <tableColumn id="8" name="2016" dataDxfId="7"/>
-    <tableColumn id="9" name="2020" dataDxfId="6"/>
+    <tableColumn id="1" name="stateAbbr" dataDxfId="15"/>
+    <tableColumn id="2" name="1992" dataDxfId="14"/>
+    <tableColumn id="3" name="1996" dataDxfId="13"/>
+    <tableColumn id="4" name="2000" dataDxfId="12"/>
+    <tableColumn id="5" name="2004" dataDxfId="11"/>
+    <tableColumn id="6" name="2008" dataDxfId="10"/>
+    <tableColumn id="7" name="2012" dataDxfId="9"/>
+    <tableColumn id="8" name="2016" dataDxfId="8"/>
+    <tableColumn id="9" name="2020" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:D52" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:D52" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:D52">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2735,10 +2752,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="stateAbbr" dataDxfId="3"/>
-    <tableColumn id="2" name="1992" dataDxfId="2"/>
-    <tableColumn id="5" name="2004" dataDxfId="1"/>
-    <tableColumn id="7" name="2012" dataDxfId="0"/>
+    <tableColumn id="1" name="stateAbbr" dataDxfId="4"/>
+    <tableColumn id="2" name="1992" dataDxfId="3"/>
+    <tableColumn id="5" name="2004" dataDxfId="2"/>
+    <tableColumn id="7" name="2012" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3011,7 +3028,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="L1445" sqref="L1445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20433,7 +20450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -25680,13 +25697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25948,6 +25965,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
